--- a/YESInteractivePlayer/InteractiveStudio/bin/Lang/InteractiveStudio..xlsx
+++ b/YESInteractivePlayer/InteractiveStudio/bin/Lang/InteractiveStudio..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\YESInteractivePlayer\InteractiveStudio\bin\Lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA50F824-DD36-4470-9C25-F9E769F2589B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{600F559B-DEB6-4550-982B-EF2EF11F4EFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2325" windowWidth="21570" windowHeight="7995" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
+    <workbookView xWindow="0" yWindow="4650" windowWidth="21570" windowHeight="7995" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="259">
   <si>
     <t>File</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Update</t>
-  </si>
-  <si>
-    <t>PowerUser</t>
   </si>
   <si>
     <t>Test</t>
@@ -800,14 +797,6 @@
     <t>升级数据发送失败</t>
   </si>
   <si>
-    <t>Do you want to save the changes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否保存修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Failed to Connect Nova Serve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,9 +906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高级用户登陆</t>
-  </si>
-  <si>
     <t>输入密码</t>
   </si>
   <si>
@@ -931,25 +917,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Played Time</t>
+  </si>
+  <si>
+    <t>Play File ID</t>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已播放时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放文件序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保存对播放方案的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to save the changes of Schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No screen added in window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No window added in Schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放窗口未添加屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放方案未添加窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PowerUser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Played Time</t>
-  </si>
-  <si>
-    <t>Play File ID</t>
+    <t>Failed to get IP data!Please check the equipment and reset it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取IP数据失败!请检查设备后重新设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide Windows</t>
   </si>
   <si>
     <t>_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已播放时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放文件序号</t>
+    <t>隐藏播放窗体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F597DAC-B72D-418A-8EB1-77DE87FB54EF}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126:C127"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1360,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1371,10 +1404,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1382,10 +1415,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1393,10 +1426,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1404,10 +1437,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1415,10 +1448,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1426,10 +1459,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1437,10 +1470,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1448,10 +1481,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1459,21 +1492,21 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
         <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1481,10 +1514,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1492,10 +1525,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1503,10 +1536,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1514,10 +1547,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1525,10 +1558,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1536,10 +1569,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1547,10 +1580,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1558,10 +1591,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1569,406 +1602,406 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
         <v>112</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1976,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -1984,772 +2017,805 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
         <v>149</v>
-      </c>
-      <c r="B60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" t="s">
         <v>155</v>
-      </c>
-      <c r="B66" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s">
         <v>157</v>
-      </c>
-      <c r="B67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s">
         <v>160</v>
-      </c>
-      <c r="B69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s">
         <v>163</v>
-      </c>
-      <c r="B70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
         <v>167</v>
-      </c>
-      <c r="B74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
         <v>169</v>
-      </c>
-      <c r="B75" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
         <v>171</v>
-      </c>
-      <c r="B76" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
         <v>174</v>
-      </c>
-      <c r="B77" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" t="s">
         <v>193</v>
-      </c>
-      <c r="B95" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B98" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" t="s">
         <v>199</v>
-      </c>
-      <c r="B99" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" t="s">
         <v>201</v>
-      </c>
-      <c r="B100" t="s">
-        <v>89</v>
-      </c>
-      <c r="C100" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" t="s">
         <v>203</v>
-      </c>
-      <c r="B101" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" t="s">
         <v>205</v>
-      </c>
-      <c r="B102" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" t="s">
         <v>207</v>
-      </c>
-      <c r="B103" t="s">
-        <v>89</v>
-      </c>
-      <c r="C103" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" t="s">
         <v>209</v>
-      </c>
-      <c r="B104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="B105" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C107" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C108" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B111" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C115" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C117" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B118" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="B119" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B120" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C120" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C121" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B122" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C122" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B123" t="s">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="C123" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B124" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C124" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B125" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C125" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B127" t="s">
+        <v>243</v>
+      </c>
+      <c r="C127" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" t="s">
         <v>248</v>
       </c>
-      <c r="C127" t="s">
-        <v>250</v>
+      <c r="C128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+      <c r="C130" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/YESInteractivePlayer/InteractiveStudio/bin/Lang/InteractiveStudio..xlsx
+++ b/YESInteractivePlayer/InteractiveStudio/bin/Lang/InteractiveStudio..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\YESInteractivePlayer\InteractiveStudio\bin\Lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{600F559B-DEB6-4550-982B-EF2EF11F4EFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A900DA5-23C1-411D-9ACC-C928B922F5BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4650" windowWidth="21570" windowHeight="7995" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
+    <workbookView xWindow="0" yWindow="5115" windowWidth="21570" windowHeight="7995" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="264">
   <si>
     <t>File</t>
   </si>
@@ -985,12 +985,29 @@
     <t>隐藏播放窗体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Restart the program to enable the language changes to take effect</t>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启程序以使语言更改生效</t>
+  </si>
+  <si>
+    <t>Change language</t>
+  </si>
+  <si>
+    <t>更改语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,6 +1043,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1049,18 +1072,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,1446 +1405,1470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F597DAC-B72D-418A-8EB1-77DE87FB54EF}">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C132" sqref="A1:C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>0</v>
       </c>
-      <c r="B57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="1">
+      <c r="B57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B64" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B65" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B66" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B73" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B76" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B77" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B86" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B89" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B93" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B94" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B94" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B95" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B96" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="B98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="s">
-        <v>88</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B101" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B102" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="s">
-        <v>88</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B105" t="s">
-        <v>88</v>
-      </c>
-      <c r="C105" s="3" t="s">
+      <c r="B105" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B106" t="s">
-        <v>88</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B107" t="s">
-        <v>88</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B108" t="s">
-        <v>88</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B108" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B109" t="s">
-        <v>88</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B109" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B110" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B110" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B111" t="s">
-        <v>88</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B111" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B112" t="s">
-        <v>88</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B112" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B113" t="s">
-        <v>88</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B113" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B114" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B114" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B115" t="s">
-        <v>88</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B115" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B116" t="s">
-        <v>88</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B116" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B117" t="s">
-        <v>88</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B117" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B118" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B118" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B119" t="s">
-        <v>88</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B119" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B120" t="s">
-        <v>88</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B120" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B121" t="s">
-        <v>88</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B121" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B122" t="s">
-        <v>88</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B122" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B123" t="s">
-        <v>88</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B123" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/YESInteractivePlayer/InteractiveStudio/bin/Lang/InteractiveStudio..xlsx
+++ b/YESInteractivePlayer/InteractiveStudio/bin/Lang/InteractiveStudio..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\YESInteractivePlayer\InteractiveStudio\bin\Lang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\YESInteractiveStudio\InteractiveStudio\bin\Lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A900DA5-23C1-411D-9ACC-C928B922F5BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15B79AD-D8E3-4014-9E17-08B814C87221}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5115" windowWidth="21570" windowHeight="7995" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
+    <workbookView xWindow="2805" yWindow="1620" windowWidth="21600" windowHeight="11490" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="269">
   <si>
     <t>File</t>
   </si>
@@ -1001,6 +1001,23 @@
   <si>
     <t>更改语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorAngle</t>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box Rotation</t>
+  </si>
+  <si>
+    <t>箱体旋转</t>
   </si>
 </sst>
 </file>
@@ -1405,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F597DAC-B72D-418A-8EB1-77DE87FB54EF}">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C132" sqref="A1:C132"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2871,6 +2888,28 @@
         <v>263</v>
       </c>
     </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
